--- a/利润表/688668.xlsx
+++ b/利润表/688668.xlsx
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>30132090.61</v>
+        <v>45724972.05</v>
       </c>
       <c r="P2" t="n">
-        <v>136972337.26</v>
+        <v>204779402.99</v>
       </c>
       <c r="Q2" t="n">
-        <v>103438260.52</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>150709675.39</v>
+      </c>
+      <c r="R2" t="n">
+        <v>45.7001254974</v>
+      </c>
       <c r="S2" t="n">
-        <v>75959479.55</v>
+        <v>115922904.19</v>
       </c>
       <c r="T2" t="n">
-        <v>75959479.55</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>115922904.19</v>
+      </c>
+      <c r="U2" t="n">
+        <v>52.6115040239</v>
+      </c>
       <c r="V2" t="n">
-        <v>3815245.37</v>
+        <v>4995910.32</v>
       </c>
       <c r="W2" t="n">
-        <v>13696472.14</v>
+        <v>13495810.32</v>
       </c>
       <c r="X2" t="n">
-        <v>-241709.03</v>
+        <v>245758.04</v>
       </c>
       <c r="Y2" t="n">
-        <v>35447143.28</v>
+        <v>51878341.98</v>
       </c>
       <c r="Z2" t="n">
-        <v>35140926.2</v>
+        <v>52471127.33</v>
       </c>
       <c r="AA2" t="n">
-        <v>5008835.59</v>
+        <v>6746155.28</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1200941.86</v>
+        <v>1402040.97</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>49.5042043426</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>46.354084362197</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51.74842211189</v>
+      </c>
       <c r="AS2" t="n">
-        <v>27451825.82</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>44941740.83</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>63.711150925553</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688668.xlsx
+++ b/利润表/688668.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>45724972.05</v>
+        <v>35393856.22</v>
       </c>
       <c r="P2" t="n">
-        <v>204779402.99</v>
+        <v>167929441.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>150709675.39</v>
-      </c>
-      <c r="R2" t="n">
-        <v>45.7001254974</v>
-      </c>
+        <v>129678107.83</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>115922904.19</v>
+        <v>106817254.74</v>
       </c>
       <c r="T2" t="n">
-        <v>115922904.19</v>
-      </c>
-      <c r="U2" t="n">
-        <v>52.6115040239</v>
-      </c>
+        <v>106817254.74</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>4995910.32</v>
+        <v>2630741.43</v>
       </c>
       <c r="W2" t="n">
-        <v>13495810.32</v>
+        <v>7988377.15</v>
       </c>
       <c r="X2" t="n">
-        <v>245758.04</v>
+        <v>391372.77</v>
       </c>
       <c r="Y2" t="n">
-        <v>51878341.98</v>
+        <v>37641750.21</v>
       </c>
       <c r="Z2" t="n">
-        <v>52471127.33</v>
+        <v>40284970.65</v>
       </c>
       <c r="AA2" t="n">
-        <v>6746155.28</v>
+        <v>4891114.43</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1402040.97</v>
+        <v>1408533.84</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +789,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>49.5042043426</v>
+        <v>49.348143374</v>
       </c>
       <c r="AQ2" t="n">
-        <v>46.354084362197</v>
+        <v>13.128995951709</v>
       </c>
       <c r="AR2" t="n">
-        <v>51.74842211189</v>
+        <v>22.55235770725</v>
       </c>
       <c r="AS2" t="n">
-        <v>44941740.83</v>
+        <v>32592943</v>
       </c>
       <c r="AT2" t="n">
-        <v>63.711150925553</v>
+        <v>12.525505007785</v>
       </c>
     </row>
   </sheetData>
